--- a/data/pca/factorExposure/factorExposure_2015-10-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01262559897725415</v>
+        <v>-0.01486267746279262</v>
       </c>
       <c r="C2">
-        <v>0.02773542158081606</v>
+        <v>0.03678925682586942</v>
       </c>
       <c r="D2">
-        <v>-0.1041335340178736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1311423133011125</v>
+      </c>
+      <c r="E2">
+        <v>-0.05459870168859678</v>
+      </c>
+      <c r="F2">
+        <v>0.01246036623383424</v>
+      </c>
+      <c r="G2">
+        <v>0.08160817724794001</v>
+      </c>
+      <c r="H2">
+        <v>0.0819811984475412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01643061112055412</v>
+        <v>-0.0111719542591021</v>
       </c>
       <c r="C3">
-        <v>0.05579803465741547</v>
+        <v>0.04324618702787725</v>
       </c>
       <c r="D3">
-        <v>-0.09086459518212187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05738501455900694</v>
+      </c>
+      <c r="E3">
+        <v>-0.04228994366103621</v>
+      </c>
+      <c r="F3">
+        <v>0.06830506662795259</v>
+      </c>
+      <c r="G3">
+        <v>0.1321382129093787</v>
+      </c>
+      <c r="H3">
+        <v>0.02297071007575172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04810329562978165</v>
+        <v>-0.05161002392804396</v>
       </c>
       <c r="C4">
-        <v>0.05640685671421791</v>
+        <v>0.07186215793671229</v>
       </c>
       <c r="D4">
-        <v>-0.1261997733036989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1459203552256077</v>
+      </c>
+      <c r="E4">
+        <v>-0.05229339606298879</v>
+      </c>
+      <c r="F4">
+        <v>0.0284419734199364</v>
+      </c>
+      <c r="G4">
+        <v>-0.04465162020683161</v>
+      </c>
+      <c r="H4">
+        <v>0.01105502855842659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03783403170298615</v>
+        <v>-0.03840311286206118</v>
       </c>
       <c r="C6">
-        <v>0.01877354608368967</v>
+        <v>0.02900791304380533</v>
       </c>
       <c r="D6">
-        <v>-0.1448080171898679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1429193888457455</v>
+      </c>
+      <c r="E6">
+        <v>-0.02017990892388826</v>
+      </c>
+      <c r="F6">
+        <v>0.01644942403755616</v>
+      </c>
+      <c r="G6">
+        <v>0.001962210792211726</v>
+      </c>
+      <c r="H6">
+        <v>0.04915623992131832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01581425526435228</v>
+        <v>-0.01258845637544864</v>
       </c>
       <c r="C7">
-        <v>0.02779189030574204</v>
+        <v>0.03408295145062746</v>
       </c>
       <c r="D7">
-        <v>-0.105180609849073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0975570382767551</v>
+      </c>
+      <c r="E7">
+        <v>-0.0157481639559484</v>
+      </c>
+      <c r="F7">
+        <v>0.02058513076897441</v>
+      </c>
+      <c r="G7">
+        <v>0.03383634681081168</v>
+      </c>
+      <c r="H7">
+        <v>0.09120483474800049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009797730127260445</v>
+        <v>-0.006861652070867835</v>
       </c>
       <c r="C8">
-        <v>0.02530488915356091</v>
+        <v>0.03855505203575961</v>
       </c>
       <c r="D8">
-        <v>-0.06794833256425165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08791052589413872</v>
+      </c>
+      <c r="E8">
+        <v>-0.03609194122333856</v>
+      </c>
+      <c r="F8">
+        <v>0.06714448836664003</v>
+      </c>
+      <c r="G8">
+        <v>0.04876753084332065</v>
+      </c>
+      <c r="H8">
+        <v>0.05294380866078328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03997764284138436</v>
+        <v>-0.04094034607000935</v>
       </c>
       <c r="C9">
-        <v>0.05087491292017646</v>
+        <v>0.06502329157964207</v>
       </c>
       <c r="D9">
-        <v>-0.110001607289438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1212416387988073</v>
+      </c>
+      <c r="E9">
+        <v>-0.03717315756549219</v>
+      </c>
+      <c r="F9">
+        <v>0.01253646755367012</v>
+      </c>
+      <c r="G9">
+        <v>-0.02399358365248569</v>
+      </c>
+      <c r="H9">
+        <v>0.01537558152911874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1132731454089913</v>
+        <v>-0.1462227136219031</v>
       </c>
       <c r="C10">
-        <v>-0.1868868371751213</v>
+        <v>-0.1877989780223619</v>
       </c>
       <c r="D10">
-        <v>0.0034154603907107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.007075825545448214</v>
+      </c>
+      <c r="E10">
+        <v>-0.04311065339774348</v>
+      </c>
+      <c r="F10">
+        <v>0.05102107674695721</v>
+      </c>
+      <c r="G10">
+        <v>-0.007089751798618751</v>
+      </c>
+      <c r="H10">
+        <v>-0.02673641599063731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02992582145809274</v>
+        <v>-0.02836000530122071</v>
       </c>
       <c r="C11">
-        <v>0.03985301147783684</v>
+        <v>0.04474600560325304</v>
       </c>
       <c r="D11">
-        <v>-0.05923473855311843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05759520045738895</v>
+      </c>
+      <c r="E11">
+        <v>0.0105699958959645</v>
+      </c>
+      <c r="F11">
+        <v>-0.007957219643730128</v>
+      </c>
+      <c r="G11">
+        <v>0.007970080286408962</v>
+      </c>
+      <c r="H11">
+        <v>0.0381947145812213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03624686783666488</v>
+        <v>-0.03333136452570852</v>
       </c>
       <c r="C12">
-        <v>0.0418834286513468</v>
+        <v>0.04746360854881346</v>
       </c>
       <c r="D12">
-        <v>-0.06007597501706113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05586267668274379</v>
+      </c>
+      <c r="E12">
+        <v>0.001056611242549438</v>
+      </c>
+      <c r="F12">
+        <v>-0.01219277919449171</v>
+      </c>
+      <c r="G12">
+        <v>0.01848631776180417</v>
+      </c>
+      <c r="H12">
+        <v>0.04023634805833074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01111490244874045</v>
+        <v>-0.01668577579930393</v>
       </c>
       <c r="C13">
-        <v>0.03349536788443481</v>
+        <v>0.03998319881091097</v>
       </c>
       <c r="D13">
-        <v>-0.1381732423339145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1563566887035706</v>
+      </c>
+      <c r="E13">
+        <v>-0.02964001099347994</v>
+      </c>
+      <c r="F13">
+        <v>0.04942115812142532</v>
+      </c>
+      <c r="G13">
+        <v>0.03852478215422073</v>
+      </c>
+      <c r="H13">
+        <v>0.08123486331636984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002868184691294558</v>
+        <v>-0.00665501526855409</v>
       </c>
       <c r="C14">
-        <v>0.02201665106377874</v>
+        <v>0.02383198509730027</v>
       </c>
       <c r="D14">
-        <v>-0.08716231834505225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09385689235316454</v>
+      </c>
+      <c r="E14">
+        <v>-0.02997948811102032</v>
+      </c>
+      <c r="F14">
+        <v>0.005387068568028507</v>
+      </c>
+      <c r="G14">
+        <v>0.03591723532155093</v>
+      </c>
+      <c r="H14">
+        <v>0.1043085332229847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002659661554158648</v>
+        <v>-0.0009215142376776581</v>
       </c>
       <c r="C15">
-        <v>0.001997982749558026</v>
+        <v>0.01222294395666973</v>
       </c>
       <c r="D15">
-        <v>-0.002721272512827065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03564395296230817</v>
+      </c>
+      <c r="E15">
+        <v>-0.009323759125352687</v>
+      </c>
+      <c r="F15">
+        <v>-0.001010541700100107</v>
+      </c>
+      <c r="G15">
+        <v>0.008930365518857876</v>
+      </c>
+      <c r="H15">
+        <v>0.0169240756061645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02930908294274156</v>
+        <v>-0.02879381931742212</v>
       </c>
       <c r="C16">
-        <v>0.04412058438691119</v>
+        <v>0.04582834860512561</v>
       </c>
       <c r="D16">
-        <v>-0.06421092539088635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06139730981964649</v>
+      </c>
+      <c r="E16">
+        <v>-0.006242657582098721</v>
+      </c>
+      <c r="F16">
+        <v>-0.004326102668491684</v>
+      </c>
+      <c r="G16">
+        <v>0.01559300369568649</v>
+      </c>
+      <c r="H16">
+        <v>0.05442565104236942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006221142264948513</v>
+        <v>-0.004784045224217964</v>
       </c>
       <c r="C19">
-        <v>0.02995755862235472</v>
+        <v>0.0243787264714359</v>
       </c>
       <c r="D19">
-        <v>-0.1504728740256706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1155609323782247</v>
+      </c>
+      <c r="E19">
+        <v>-0.05704396022089127</v>
+      </c>
+      <c r="F19">
+        <v>-0.006170770511108843</v>
+      </c>
+      <c r="G19">
+        <v>0.04403830639316707</v>
+      </c>
+      <c r="H19">
+        <v>0.04389075436595093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01227020931642971</v>
+        <v>-0.01511302066231286</v>
       </c>
       <c r="C20">
-        <v>0.03162731772233495</v>
+        <v>0.03482422529883174</v>
       </c>
       <c r="D20">
-        <v>-0.0879442529516922</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1028816580656567</v>
+      </c>
+      <c r="E20">
+        <v>-0.04797543969519153</v>
+      </c>
+      <c r="F20">
+        <v>0.002853347982661388</v>
+      </c>
+      <c r="G20">
+        <v>0.01079704728273837</v>
+      </c>
+      <c r="H20">
+        <v>0.06101232097714181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003537651756996287</v>
+        <v>-0.008443216115117575</v>
       </c>
       <c r="C21">
-        <v>0.0304184740936762</v>
+        <v>0.03924749001835218</v>
       </c>
       <c r="D21">
-        <v>-0.1303393297977206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1414666934061681</v>
+      </c>
+      <c r="E21">
+        <v>-0.08359696144767917</v>
+      </c>
+      <c r="F21">
+        <v>0.02334940910848151</v>
+      </c>
+      <c r="G21">
+        <v>0.02380549270642748</v>
+      </c>
+      <c r="H21">
+        <v>0.09080785061610097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003882067255321379</v>
+        <v>-0.005450313911102415</v>
       </c>
       <c r="C22">
-        <v>0.03125651063358172</v>
+        <v>0.0432500892202868</v>
       </c>
       <c r="D22">
-        <v>-0.101440435914808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1594781397382451</v>
+      </c>
+      <c r="E22">
+        <v>-0.01693463620921221</v>
+      </c>
+      <c r="F22">
+        <v>0.09404164188538727</v>
+      </c>
+      <c r="G22">
+        <v>0.05980750713230766</v>
+      </c>
+      <c r="H22">
+        <v>-0.02427490220782994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004012272276515767</v>
+        <v>-0.005577906466961103</v>
       </c>
       <c r="C23">
-        <v>0.03133099327976811</v>
+        <v>0.04372202689025224</v>
       </c>
       <c r="D23">
-        <v>-0.1007424867916675</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1587727626205611</v>
+      </c>
+      <c r="E23">
+        <v>-0.01739353089586432</v>
+      </c>
+      <c r="F23">
+        <v>0.09414174273297567</v>
+      </c>
+      <c r="G23">
+        <v>0.05895676991212422</v>
+      </c>
+      <c r="H23">
+        <v>-0.02454165415089676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03262834416405338</v>
+        <v>-0.03010480179946535</v>
       </c>
       <c r="C24">
-        <v>0.05167315722238741</v>
+        <v>0.05760797550165954</v>
       </c>
       <c r="D24">
-        <v>-0.06481974482233109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06452150435401023</v>
+      </c>
+      <c r="E24">
+        <v>-0.008400329032604039</v>
+      </c>
+      <c r="F24">
+        <v>-0.00762002691365686</v>
+      </c>
+      <c r="G24">
+        <v>0.008688894057786502</v>
+      </c>
+      <c r="H24">
+        <v>0.06580779863940052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03729652459708173</v>
+        <v>-0.03429199058064553</v>
       </c>
       <c r="C25">
-        <v>0.04988712241111694</v>
+        <v>0.0546927689701141</v>
       </c>
       <c r="D25">
-        <v>-0.06312776682707741</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06133716143557804</v>
+      </c>
+      <c r="E25">
+        <v>-0.008576502174603323</v>
+      </c>
+      <c r="F25">
+        <v>-0.002308596853555444</v>
+      </c>
+      <c r="G25">
+        <v>0.01145076442429546</v>
+      </c>
+      <c r="H25">
+        <v>0.03517767278851504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01466362150298236</v>
+        <v>-0.01743341877319999</v>
       </c>
       <c r="C26">
-        <v>0.01131753539046849</v>
+        <v>0.01758426658235491</v>
       </c>
       <c r="D26">
-        <v>-0.05769530115595436</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06514060287019423</v>
+      </c>
+      <c r="E26">
+        <v>-0.01790970533312336</v>
+      </c>
+      <c r="F26">
+        <v>0.01179527022068484</v>
+      </c>
+      <c r="G26">
+        <v>0.02027084426517589</v>
+      </c>
+      <c r="H26">
+        <v>0.06424758189051363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1633519236707965</v>
+        <v>-0.2094557262305359</v>
       </c>
       <c r="C28">
-        <v>-0.2571652183261345</v>
+        <v>-0.2521671274247215</v>
       </c>
       <c r="D28">
-        <v>0.01713223616365957</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.002692528876048595</v>
+      </c>
+      <c r="E28">
+        <v>-0.07495489726515515</v>
+      </c>
+      <c r="F28">
+        <v>0.02555260374406158</v>
+      </c>
+      <c r="G28">
+        <v>-0.04215860884305396</v>
+      </c>
+      <c r="H28">
+        <v>-0.02439203009895879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0003932154109300538</v>
+        <v>-0.003831460037652765</v>
       </c>
       <c r="C29">
-        <v>0.02185323464001517</v>
+        <v>0.02271486130025493</v>
       </c>
       <c r="D29">
-        <v>-0.07178373911469801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.09126549127266596</v>
+      </c>
+      <c r="E29">
+        <v>-0.02140281817640862</v>
+      </c>
+      <c r="F29">
+        <v>0.02331385282401451</v>
+      </c>
+      <c r="G29">
+        <v>0.02466945634227736</v>
+      </c>
+      <c r="H29">
+        <v>0.1079787414476617</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02773186631901179</v>
+        <v>-0.03719908474084822</v>
       </c>
       <c r="C30">
-        <v>0.04623597081692622</v>
+        <v>0.06163949137956851</v>
       </c>
       <c r="D30">
-        <v>-0.1564637812028281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1729198104190478</v>
+      </c>
+      <c r="E30">
+        <v>-0.02191536144381106</v>
+      </c>
+      <c r="F30">
+        <v>0.0135838808796843</v>
+      </c>
+      <c r="G30">
+        <v>-0.002380032298595702</v>
+      </c>
+      <c r="H30">
+        <v>0.07152289045158156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05988750499682438</v>
+        <v>-0.05261742561923755</v>
       </c>
       <c r="C31">
-        <v>0.06268778001149131</v>
+        <v>0.07594305070591281</v>
       </c>
       <c r="D31">
-        <v>-0.07018380684333431</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05294942559268347</v>
+      </c>
+      <c r="E31">
+        <v>-0.02377949189916179</v>
+      </c>
+      <c r="F31">
+        <v>0.03946302798715784</v>
+      </c>
+      <c r="G31">
+        <v>0.01058718023266262</v>
+      </c>
+      <c r="H31">
+        <v>0.02195319643373802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.009161593203113397</v>
+        <v>-0.01644731093422144</v>
       </c>
       <c r="C32">
-        <v>0.01028440133857185</v>
+        <v>0.0145715716005027</v>
       </c>
       <c r="D32">
-        <v>-0.07156994472528812</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1155208836347719</v>
+      </c>
+      <c r="E32">
+        <v>-0.07777432341937181</v>
+      </c>
+      <c r="F32">
+        <v>0.0299938644468835</v>
+      </c>
+      <c r="G32">
+        <v>0.01169600437006214</v>
+      </c>
+      <c r="H32">
+        <v>0.07414763667548425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02215007094265422</v>
+        <v>-0.02394104627457824</v>
       </c>
       <c r="C33">
-        <v>0.03456916304375206</v>
+        <v>0.04410496755355139</v>
       </c>
       <c r="D33">
-        <v>-0.1342061601915602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1343491727900661</v>
+      </c>
+      <c r="E33">
+        <v>-0.03729226810746326</v>
+      </c>
+      <c r="F33">
+        <v>0.01429908714015674</v>
+      </c>
+      <c r="G33">
+        <v>0.02213981525401451</v>
+      </c>
+      <c r="H33">
+        <v>0.06236228824477822</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0311582332392197</v>
+        <v>-0.02668161569426657</v>
       </c>
       <c r="C34">
-        <v>0.06401528634643856</v>
+        <v>0.06202291309344729</v>
       </c>
       <c r="D34">
-        <v>-0.06721656991575498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05393560473397443</v>
+      </c>
+      <c r="E34">
+        <v>0.008772488431792231</v>
+      </c>
+      <c r="F34">
+        <v>-0.01648147327638559</v>
+      </c>
+      <c r="G34">
+        <v>0.02236622192968501</v>
+      </c>
+      <c r="H34">
+        <v>0.049508611561872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0008128564081332623</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009763626518989747</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.00704290118936909</v>
+      </c>
+      <c r="E35">
+        <v>0.0005689581432006332</v>
+      </c>
+      <c r="F35">
+        <v>0.0009062120281272521</v>
+      </c>
+      <c r="G35">
+        <v>0.001853655947996891</v>
+      </c>
+      <c r="H35">
+        <v>0.004150196927505618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01797199388430477</v>
+        <v>-0.01909179869423381</v>
       </c>
       <c r="C36">
-        <v>0.006181751724706947</v>
+        <v>0.01562868668065834</v>
       </c>
       <c r="D36">
-        <v>-0.07666614981155734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07770012368036466</v>
+      </c>
+      <c r="E36">
+        <v>-0.02718244915865769</v>
+      </c>
+      <c r="F36">
+        <v>0.007604045351910314</v>
+      </c>
+      <c r="G36">
+        <v>0.003608742385559961</v>
+      </c>
+      <c r="H36">
+        <v>0.05931123561041222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0200494295442146</v>
+        <v>-0.02114546532936645</v>
       </c>
       <c r="C38">
-        <v>0.01433828064961585</v>
+        <v>0.02048940589599587</v>
       </c>
       <c r="D38">
-        <v>-0.06325137572866328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06646472982898471</v>
+      </c>
+      <c r="E38">
+        <v>-0.03374843562753393</v>
+      </c>
+      <c r="F38">
+        <v>-0.01435114198074927</v>
+      </c>
+      <c r="G38">
+        <v>0.04155065385546746</v>
+      </c>
+      <c r="H38">
+        <v>0.0340349678730486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03433699044563463</v>
+        <v>-0.03304659137115164</v>
       </c>
       <c r="C39">
-        <v>0.05448644085573316</v>
+        <v>0.06897899266642145</v>
       </c>
       <c r="D39">
-        <v>-0.08535319003229008</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1007063980661892</v>
+      </c>
+      <c r="E39">
+        <v>-0.007167995616183153</v>
+      </c>
+      <c r="F39">
+        <v>-0.03140269351227756</v>
+      </c>
+      <c r="G39">
+        <v>0.01153828300323361</v>
+      </c>
+      <c r="H39">
+        <v>0.1033906338757495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01426704513570922</v>
+        <v>-0.01137253189728941</v>
       </c>
       <c r="C40">
-        <v>0.04187887942974464</v>
+        <v>0.04067583587804634</v>
       </c>
       <c r="D40">
-        <v>-0.08047140500826751</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08735353621919845</v>
+      </c>
+      <c r="E40">
+        <v>-0.05199328577633713</v>
+      </c>
+      <c r="F40">
+        <v>0.09352479978947373</v>
+      </c>
+      <c r="G40">
+        <v>0.1453671062664069</v>
+      </c>
+      <c r="H40">
+        <v>0.1303817572252274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02450406166032435</v>
+        <v>-0.02339900299453362</v>
       </c>
       <c r="C41">
-        <v>0.002344272754100504</v>
+        <v>0.009097115253298085</v>
       </c>
       <c r="D41">
-        <v>-0.06570679252285282</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05459206900629325</v>
+      </c>
+      <c r="E41">
+        <v>-0.04814058187044506</v>
+      </c>
+      <c r="F41">
+        <v>0.00865992180166447</v>
+      </c>
+      <c r="G41">
+        <v>0.03305314242689104</v>
+      </c>
+      <c r="H41">
+        <v>0.03678960445627388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02616719718658051</v>
+        <v>-0.02321291256199947</v>
       </c>
       <c r="C43">
-        <v>0.01303457447859242</v>
+        <v>0.0190211039477481</v>
       </c>
       <c r="D43">
-        <v>-0.1076706849783397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08423016453520672</v>
+      </c>
+      <c r="E43">
+        <v>-0.02448381617294244</v>
+      </c>
+      <c r="F43">
+        <v>0.004938589592448223</v>
+      </c>
+      <c r="G43">
+        <v>0.03756810600094519</v>
+      </c>
+      <c r="H43">
+        <v>0.04983418594008227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01360982172148757</v>
+        <v>-0.01663075857049364</v>
       </c>
       <c r="C44">
-        <v>0.03945721136039822</v>
+        <v>0.04130096367308021</v>
       </c>
       <c r="D44">
-        <v>-0.08462822822663206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1076493813930217</v>
+      </c>
+      <c r="E44">
+        <v>-0.05581958985998821</v>
+      </c>
+      <c r="F44">
+        <v>0.01222128487665894</v>
+      </c>
+      <c r="G44">
+        <v>0.02598630779378314</v>
+      </c>
+      <c r="H44">
+        <v>0.06933991601074481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01232092709642913</v>
+        <v>-0.01263817789865703</v>
       </c>
       <c r="C46">
-        <v>0.02459607053470205</v>
+        <v>0.02996545276961536</v>
       </c>
       <c r="D46">
-        <v>-0.08259474041321868</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08935378364272198</v>
+      </c>
+      <c r="E46">
+        <v>-0.03344563724597398</v>
+      </c>
+      <c r="F46">
+        <v>-0.001527935688493545</v>
+      </c>
+      <c r="G46">
+        <v>0.021105221130975</v>
+      </c>
+      <c r="H46">
+        <v>0.09696807720350711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09169476962544434</v>
+        <v>-0.08072950192918588</v>
       </c>
       <c r="C47">
-        <v>0.0730131988791758</v>
+        <v>0.09265202754074464</v>
       </c>
       <c r="D47">
-        <v>-0.04520322632461703</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03400030515815484</v>
+      </c>
+      <c r="E47">
+        <v>-0.03785329945415154</v>
+      </c>
+      <c r="F47">
+        <v>0.03029536248922448</v>
+      </c>
+      <c r="G47">
+        <v>0.008061390732553105</v>
+      </c>
+      <c r="H47">
+        <v>-0.04806829032127168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01039291792718323</v>
+        <v>-0.01427770289579918</v>
       </c>
       <c r="C48">
-        <v>0.01665433141883851</v>
+        <v>0.02062396361914501</v>
       </c>
       <c r="D48">
-        <v>-0.06291896176137898</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07214296735351221</v>
+      </c>
+      <c r="E48">
+        <v>-0.05122431256351066</v>
+      </c>
+      <c r="F48">
+        <v>0.009490066292445117</v>
+      </c>
+      <c r="G48">
+        <v>0.009148093484626127</v>
+      </c>
+      <c r="H48">
+        <v>0.06586639783697168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05575216596754762</v>
+        <v>-0.04979569173965358</v>
       </c>
       <c r="C50">
-        <v>0.0550574504276725</v>
+        <v>0.06789378311090888</v>
       </c>
       <c r="D50">
-        <v>-0.06035422798655621</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05266743515862533</v>
+      </c>
+      <c r="E50">
+        <v>-0.02923802631537214</v>
+      </c>
+      <c r="F50">
+        <v>0.03986957511654365</v>
+      </c>
+      <c r="G50">
+        <v>0.04302339160305522</v>
+      </c>
+      <c r="H50">
+        <v>0.01362725956260697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009168460540980096</v>
+        <v>-0.01112634226605935</v>
       </c>
       <c r="C51">
-        <v>0.0162584086575944</v>
+        <v>0.02014421512900596</v>
       </c>
       <c r="D51">
-        <v>-0.07847655022407936</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0902803371287557</v>
+      </c>
+      <c r="E51">
+        <v>-0.01031206186401672</v>
+      </c>
+      <c r="F51">
+        <v>-0.004245888117202572</v>
+      </c>
+      <c r="G51">
+        <v>0.01651038324734689</v>
+      </c>
+      <c r="H51">
+        <v>0.09073198998220403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0894678961136514</v>
+        <v>-0.08695128047187355</v>
       </c>
       <c r="C53">
-        <v>0.08933478999360561</v>
+        <v>0.1018467118837996</v>
       </c>
       <c r="D53">
-        <v>-0.003723341208077264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01703698968048162</v>
+      </c>
+      <c r="E53">
+        <v>-0.1076540459306685</v>
+      </c>
+      <c r="F53">
+        <v>0.07866753309104277</v>
+      </c>
+      <c r="G53">
+        <v>-0.05192702564697872</v>
+      </c>
+      <c r="H53">
+        <v>0.0002550487090054471</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02509017561945149</v>
+        <v>-0.02514181095520481</v>
       </c>
       <c r="C54">
-        <v>0.02948364688452847</v>
+        <v>0.03458598990793066</v>
       </c>
       <c r="D54">
-        <v>-0.09345414608344148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0880019594314735</v>
+      </c>
+      <c r="E54">
+        <v>-0.03440837726703016</v>
+      </c>
+      <c r="F54">
+        <v>-0.005470370573620292</v>
+      </c>
+      <c r="G54">
+        <v>0.05513487638529878</v>
+      </c>
+      <c r="H54">
+        <v>0.08636705649504517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0900420890822778</v>
+        <v>-0.08426331775894189</v>
       </c>
       <c r="C55">
-        <v>0.06479696681702646</v>
+        <v>0.08076044867580946</v>
       </c>
       <c r="D55">
-        <v>0.01398868776789578</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006617796145558185</v>
+      </c>
+      <c r="E55">
+        <v>-0.05338322055374896</v>
+      </c>
+      <c r="F55">
+        <v>0.05842707610164399</v>
+      </c>
+      <c r="G55">
+        <v>-0.02625159130569264</v>
+      </c>
+      <c r="H55">
+        <v>-0.004205913014807317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1398180999092857</v>
+        <v>-0.1290281836635576</v>
       </c>
       <c r="C56">
-        <v>0.09850188446267613</v>
+        <v>0.1269864175372629</v>
       </c>
       <c r="D56">
-        <v>0.004317646392598798</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.008319239424020269</v>
+      </c>
+      <c r="E56">
+        <v>-0.05825135619746791</v>
+      </c>
+      <c r="F56">
+        <v>0.05818919316028396</v>
+      </c>
+      <c r="G56">
+        <v>-0.006514157904017349</v>
+      </c>
+      <c r="H56">
+        <v>-0.04409026050087619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.001189008611764275</v>
+        <v>-0.01396758151069953</v>
       </c>
       <c r="C58">
-        <v>0.003103338412360248</v>
+        <v>0.02958515772605783</v>
       </c>
       <c r="D58">
-        <v>-0.2815014099803773</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3317853132189095</v>
+      </c>
+      <c r="E58">
+        <v>-0.1262647980102935</v>
+      </c>
+      <c r="F58">
+        <v>0.1103899079717467</v>
+      </c>
+      <c r="G58">
+        <v>0.03324595260006343</v>
+      </c>
+      <c r="H58">
+        <v>-0.1112366250879203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1472324052706551</v>
+        <v>-0.180943057656428</v>
       </c>
       <c r="C59">
-        <v>-0.1821205786097569</v>
+        <v>-0.1677450786200977</v>
       </c>
       <c r="D59">
-        <v>-0.03388692145708559</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0527879660359104</v>
+      </c>
+      <c r="E59">
+        <v>-0.02667402418290679</v>
+      </c>
+      <c r="F59">
+        <v>-0.02992978952555013</v>
+      </c>
+      <c r="G59">
+        <v>-0.00859489670860409</v>
+      </c>
+      <c r="H59">
+        <v>-0.02492527484241846</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2428480863940789</v>
+        <v>-0.2265122137552412</v>
       </c>
       <c r="C60">
-        <v>0.08013862432436893</v>
+        <v>0.1092008343226312</v>
       </c>
       <c r="D60">
-        <v>-0.2151785670909435</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.126289830128294</v>
+      </c>
+      <c r="E60">
+        <v>0.343802364652261</v>
+      </c>
+      <c r="F60">
+        <v>-0.04197529791693242</v>
+      </c>
+      <c r="G60">
+        <v>-0.08286354476840832</v>
+      </c>
+      <c r="H60">
+        <v>-0.1351648555563705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04205951369190492</v>
+        <v>-0.03925930126717475</v>
       </c>
       <c r="C61">
-        <v>0.05296581079942698</v>
+        <v>0.06296428129654565</v>
       </c>
       <c r="D61">
-        <v>-0.1018579018826149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09314699158764177</v>
+      </c>
+      <c r="E61">
+        <v>-0.0001645933993693841</v>
+      </c>
+      <c r="F61">
+        <v>-0.02200666763110156</v>
+      </c>
+      <c r="G61">
+        <v>0.01260219294122208</v>
+      </c>
+      <c r="H61">
+        <v>0.06396217474429661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01529101509983403</v>
+        <v>-0.01606827513224322</v>
       </c>
       <c r="C63">
-        <v>0.02088866404059266</v>
+        <v>0.03003538895678989</v>
       </c>
       <c r="D63">
-        <v>-0.07165182338648703</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07263570794167404</v>
+      </c>
+      <c r="E63">
+        <v>-0.01336702516472608</v>
+      </c>
+      <c r="F63">
+        <v>0.006015051904021909</v>
+      </c>
+      <c r="G63">
+        <v>0.001959136971593185</v>
+      </c>
+      <c r="H63">
+        <v>0.05676732520275481</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05700975164073414</v>
+        <v>-0.05088454975881245</v>
       </c>
       <c r="C64">
-        <v>0.07402944472477885</v>
+        <v>0.08296934227564889</v>
       </c>
       <c r="D64">
-        <v>-0.05281196141426508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05426165287451712</v>
+      </c>
+      <c r="E64">
+        <v>-0.02442722079202001</v>
+      </c>
+      <c r="F64">
+        <v>-0.01160163959063604</v>
+      </c>
+      <c r="G64">
+        <v>-0.0443170875925652</v>
+      </c>
+      <c r="H64">
+        <v>0.05592289743345436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04162453648298348</v>
+        <v>-0.04080460014797373</v>
       </c>
       <c r="C65">
-        <v>0.01710553984230711</v>
+        <v>0.02817395134866299</v>
       </c>
       <c r="D65">
-        <v>-0.124230892571361</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1209169536900239</v>
+      </c>
+      <c r="E65">
+        <v>0.004530900108716531</v>
+      </c>
+      <c r="F65">
+        <v>0.009122297746782831</v>
+      </c>
+      <c r="G65">
+        <v>0.01015775096301353</v>
+      </c>
+      <c r="H65">
+        <v>0.005044564422718816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03923571300985259</v>
+        <v>-0.0374179286143366</v>
       </c>
       <c r="C66">
-        <v>0.05958896740325973</v>
+        <v>0.0780885517827231</v>
       </c>
       <c r="D66">
-        <v>-0.106250051468896</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1277749168230171</v>
+      </c>
+      <c r="E66">
+        <v>-0.009367049288049286</v>
+      </c>
+      <c r="F66">
+        <v>-0.01727093729486387</v>
+      </c>
+      <c r="G66">
+        <v>0.02006854186228443</v>
+      </c>
+      <c r="H66">
+        <v>0.06273439385769156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04084869741282668</v>
+        <v>-0.03887389005252003</v>
       </c>
       <c r="C67">
-        <v>0.02038547874904254</v>
+        <v>0.02713874959357622</v>
       </c>
       <c r="D67">
-        <v>-0.03474762592691755</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02692624422259297</v>
+      </c>
+      <c r="E67">
+        <v>-0.01251568845472658</v>
+      </c>
+      <c r="F67">
+        <v>-0.01795669199210297</v>
+      </c>
+      <c r="G67">
+        <v>0.0365074390881647</v>
+      </c>
+      <c r="H67">
+        <v>0.03250063318919952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1731333660663468</v>
+        <v>-0.2000931715620843</v>
       </c>
       <c r="C68">
-        <v>-0.2291805733354603</v>
+        <v>-0.1966552498523707</v>
       </c>
       <c r="D68">
-        <v>-0.009089289822687667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02505500107001675</v>
+      </c>
+      <c r="E68">
+        <v>-0.03006004680893667</v>
+      </c>
+      <c r="F68">
+        <v>0.03099577066878953</v>
+      </c>
+      <c r="G68">
+        <v>0.0009808776803232342</v>
+      </c>
+      <c r="H68">
+        <v>0.008993620278989022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08249543196760238</v>
+        <v>-0.07182729391942382</v>
       </c>
       <c r="C69">
-        <v>0.08821459927005022</v>
+        <v>0.09944333183982616</v>
       </c>
       <c r="D69">
-        <v>-0.06721302465349396</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.046727773336265</v>
+      </c>
+      <c r="E69">
+        <v>-0.0220001345040348</v>
+      </c>
+      <c r="F69">
+        <v>0.01159570974258748</v>
+      </c>
+      <c r="G69">
+        <v>0.002357497520270016</v>
+      </c>
+      <c r="H69">
+        <v>-0.01107458645806601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1494586046449004</v>
+        <v>-0.1855123162144441</v>
       </c>
       <c r="C71">
-        <v>-0.2220215723915708</v>
+        <v>-0.2039920203552803</v>
       </c>
       <c r="D71">
-        <v>-0.02136892515714678</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0385699454751641</v>
+      </c>
+      <c r="E71">
+        <v>-0.05098911130925243</v>
+      </c>
+      <c r="F71">
+        <v>0.06235189783226931</v>
+      </c>
+      <c r="G71">
+        <v>0.02415843535725306</v>
+      </c>
+      <c r="H71">
+        <v>-0.006276553490699809</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1051265701617819</v>
+        <v>-0.09896350734817794</v>
       </c>
       <c r="C72">
-        <v>0.05068894836322811</v>
+        <v>0.07865773497805428</v>
       </c>
       <c r="D72">
-        <v>-0.08603208202505606</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09315505699860949</v>
+      </c>
+      <c r="E72">
+        <v>0.04101636374065053</v>
+      </c>
+      <c r="F72">
+        <v>0.02958939075774075</v>
+      </c>
+      <c r="G72">
+        <v>-0.023608056181502</v>
+      </c>
+      <c r="H72">
+        <v>0.05560733525125321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.254977881599617</v>
+        <v>-0.2359204855152894</v>
       </c>
       <c r="C73">
-        <v>0.04930887144501132</v>
+        <v>0.09666528093979247</v>
       </c>
       <c r="D73">
-        <v>-0.3239001243560738</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1645568116140553</v>
+      </c>
+      <c r="E73">
+        <v>0.6517799648012584</v>
+      </c>
+      <c r="F73">
+        <v>-0.1200882083113277</v>
+      </c>
+      <c r="G73">
+        <v>-0.1355404424102386</v>
+      </c>
+      <c r="H73">
+        <v>-0.1392589717768927</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1064589234792449</v>
+        <v>-0.09550433496203813</v>
       </c>
       <c r="C74">
-        <v>0.07620092967755852</v>
+        <v>0.09371025241439553</v>
       </c>
       <c r="D74">
-        <v>0.005473761485760203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01358897830514426</v>
+      </c>
+      <c r="E74">
+        <v>-0.05067018184863903</v>
+      </c>
+      <c r="F74">
+        <v>0.07250924554168618</v>
+      </c>
+      <c r="G74">
+        <v>-0.05590863857154534</v>
+      </c>
+      <c r="H74">
+        <v>-0.03046167157133029</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2503697605188267</v>
+        <v>-0.2257879202444839</v>
       </c>
       <c r="C75">
-        <v>0.1303149591704545</v>
+        <v>0.165812905577681</v>
       </c>
       <c r="D75">
-        <v>0.07502046288700305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09731793422155607</v>
+      </c>
+      <c r="E75">
+        <v>-0.1140944401117993</v>
+      </c>
+      <c r="F75">
+        <v>0.02378752608511903</v>
+      </c>
+      <c r="G75">
+        <v>-0.03848265197497768</v>
+      </c>
+      <c r="H75">
+        <v>-0.10150682636924</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1362048738508728</v>
+        <v>-0.1243553251964176</v>
       </c>
       <c r="C76">
-        <v>0.09441133930180201</v>
+        <v>0.1128695768964574</v>
       </c>
       <c r="D76">
-        <v>0.00567645537763433</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.00626015019744436</v>
+      </c>
+      <c r="E76">
+        <v>-0.1131578375994479</v>
+      </c>
+      <c r="F76">
+        <v>0.03867534078921662</v>
+      </c>
+      <c r="G76">
+        <v>-0.02123512361413463</v>
+      </c>
+      <c r="H76">
+        <v>0.01096609387530093</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04879421653473873</v>
+        <v>-0.05804500571056833</v>
       </c>
       <c r="C77">
-        <v>0.06638271795943056</v>
+        <v>0.0697209277874551</v>
       </c>
       <c r="D77">
-        <v>-0.04214467521294662</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1297430068269019</v>
+      </c>
+      <c r="E77">
+        <v>-0.2944278799973318</v>
+      </c>
+      <c r="F77">
+        <v>-0.2740352803369916</v>
+      </c>
+      <c r="G77">
+        <v>0.2552117184502507</v>
+      </c>
+      <c r="H77">
+        <v>-0.7616865036223424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03688864548049347</v>
+        <v>-0.04351540917716518</v>
       </c>
       <c r="C78">
-        <v>0.05366350058060586</v>
+        <v>0.06954007214576537</v>
       </c>
       <c r="D78">
-        <v>-0.1256185641407724</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.139884042127318</v>
+      </c>
+      <c r="E78">
+        <v>-0.01940146034788257</v>
+      </c>
+      <c r="F78">
+        <v>0.02573537739017882</v>
+      </c>
+      <c r="G78">
+        <v>0.01262815549909485</v>
+      </c>
+      <c r="H78">
+        <v>-0.001806976894781113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.03464831571208582</v>
+        <v>-0.04745530526053102</v>
       </c>
       <c r="C79">
-        <v>0.08264304490081127</v>
+        <v>0.09728067910037509</v>
       </c>
       <c r="D79">
-        <v>0.09897502646460542</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02400047383590655</v>
+      </c>
+      <c r="E79">
+        <v>-0.2305214315555743</v>
+      </c>
+      <c r="F79">
+        <v>0.3060955191094712</v>
+      </c>
+      <c r="G79">
+        <v>-0.762942960805443</v>
+      </c>
+      <c r="H79">
+        <v>-0.1320678050710315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02501951593684664</v>
+        <v>-0.02426245296265626</v>
       </c>
       <c r="C80">
-        <v>0.04195727650582074</v>
+        <v>0.04695881436004125</v>
       </c>
       <c r="D80">
-        <v>-0.01665850049915953</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02102883507868419</v>
+      </c>
+      <c r="E80">
+        <v>-0.01948871507526134</v>
+      </c>
+      <c r="F80">
+        <v>-0.004631692906819152</v>
+      </c>
+      <c r="G80">
+        <v>0.01860830110032603</v>
+      </c>
+      <c r="H80">
+        <v>0.0490310935708043</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1394827036277549</v>
+        <v>-0.1219720349777206</v>
       </c>
       <c r="C81">
-        <v>0.1033905947367299</v>
+        <v>0.1213673869865005</v>
       </c>
       <c r="D81">
-        <v>0.06659566348123371</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07596689357373931</v>
+      </c>
+      <c r="E81">
+        <v>-0.1110278147894167</v>
+      </c>
+      <c r="F81">
+        <v>0.05464350595849272</v>
+      </c>
+      <c r="G81">
+        <v>-0.01559359774487193</v>
+      </c>
+      <c r="H81">
+        <v>-0.01869192630468502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3095440197209354</v>
+        <v>-0.2563442600119734</v>
       </c>
       <c r="C82">
-        <v>0.2726772294456387</v>
+        <v>0.2716621162044966</v>
       </c>
       <c r="D82">
-        <v>0.2429937774810127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2501351566358814</v>
+      </c>
+      <c r="E82">
+        <v>0.01467376724324828</v>
+      </c>
+      <c r="F82">
+        <v>0.03002051909643527</v>
+      </c>
+      <c r="G82">
+        <v>0.2150173074208626</v>
+      </c>
+      <c r="H82">
+        <v>0.02954450434061216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02730531254236759</v>
+        <v>-0.02179202147631309</v>
       </c>
       <c r="C83">
-        <v>0.05408027448530999</v>
+        <v>0.05118888063333484</v>
       </c>
       <c r="D83">
-        <v>-0.04512692031846677</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04930373226440848</v>
+      </c>
+      <c r="E83">
+        <v>-0.02805220827903342</v>
+      </c>
+      <c r="F83">
+        <v>-0.0617731333979151</v>
+      </c>
+      <c r="G83">
+        <v>0.04770693629205804</v>
+      </c>
+      <c r="H83">
+        <v>-0.0810661035539922</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0009377731712948566</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004893255238916491</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01885705271188689</v>
+      </c>
+      <c r="E84">
+        <v>-0.01906149551564022</v>
+      </c>
+      <c r="F84">
+        <v>0.01330133511687506</v>
+      </c>
+      <c r="G84">
+        <v>0.006434242970086162</v>
+      </c>
+      <c r="H84">
+        <v>0.01796676437482775</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1736723908447842</v>
+        <v>-0.1554079267622225</v>
       </c>
       <c r="C85">
-        <v>0.1064667702752046</v>
+        <v>0.1373275837109185</v>
       </c>
       <c r="D85">
-        <v>0.03376106597081628</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06085369635410551</v>
+      </c>
+      <c r="E85">
+        <v>-0.04697368974338711</v>
+      </c>
+      <c r="F85">
+        <v>0.05795385009334219</v>
+      </c>
+      <c r="G85">
+        <v>-0.1027011716286139</v>
+      </c>
+      <c r="H85">
+        <v>0.001969159701296444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01407087675084748</v>
+        <v>-0.01921030428623511</v>
       </c>
       <c r="C86">
-        <v>0.04164287212783888</v>
+        <v>0.03119064142808346</v>
       </c>
       <c r="D86">
-        <v>-0.1177026204429493</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1167686083497296</v>
+      </c>
+      <c r="E86">
+        <v>-0.02821183220978643</v>
+      </c>
+      <c r="F86">
+        <v>-0.01715396083815167</v>
+      </c>
+      <c r="G86">
+        <v>0.06431473823572784</v>
+      </c>
+      <c r="H86">
+        <v>-0.0239806104113453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02550427170538429</v>
+        <v>-0.03552560744069796</v>
       </c>
       <c r="C87">
-        <v>0.008404761610941676</v>
+        <v>0.02597045691927422</v>
       </c>
       <c r="D87">
-        <v>-0.1034597493491503</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1442723763374358</v>
+      </c>
+      <c r="E87">
+        <v>-0.08191205444104709</v>
+      </c>
+      <c r="F87">
+        <v>0.01081268389489582</v>
+      </c>
+      <c r="G87">
+        <v>0.03150109447710248</v>
+      </c>
+      <c r="H87">
+        <v>0.04143121580738773</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07431712845068396</v>
+        <v>-0.06691540942211235</v>
       </c>
       <c r="C88">
-        <v>0.04246585944412584</v>
+        <v>0.05626044545984468</v>
       </c>
       <c r="D88">
-        <v>-0.04580377988775537</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02368292122630579</v>
+      </c>
+      <c r="E88">
+        <v>-0.0002609418040164599</v>
+      </c>
+      <c r="F88">
+        <v>0.02730801949689773</v>
+      </c>
+      <c r="G88">
+        <v>0.003874659665195606</v>
+      </c>
+      <c r="H88">
+        <v>0.04017224113890842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2389962926107915</v>
+        <v>-0.287695438762044</v>
       </c>
       <c r="C89">
-        <v>-0.4019412544429855</v>
+        <v>-0.34763013923627</v>
       </c>
       <c r="D89">
-        <v>0.0232995415550244</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.009413406809274884</v>
+      </c>
+      <c r="E89">
+        <v>-0.06222652213836569</v>
+      </c>
+      <c r="F89">
+        <v>-0.01231796667163687</v>
+      </c>
+      <c r="G89">
+        <v>-0.01206872832781375</v>
+      </c>
+      <c r="H89">
+        <v>0.109757571092654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2132694758969133</v>
+        <v>-0.2435977704774959</v>
       </c>
       <c r="C90">
-        <v>-0.2922878503033386</v>
+        <v>-0.2464402136992428</v>
       </c>
       <c r="D90">
-        <v>-0.002263593765279924</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02258275446836918</v>
+      </c>
+      <c r="E90">
+        <v>-0.04613179117712375</v>
+      </c>
+      <c r="F90">
+        <v>-0.007535323126714231</v>
+      </c>
+      <c r="G90">
+        <v>0.06291339175545707</v>
+      </c>
+      <c r="H90">
+        <v>0.02029248752371893</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1767327370149222</v>
+        <v>-0.1544544803972169</v>
       </c>
       <c r="C91">
-        <v>0.1460984790580012</v>
+        <v>0.1573458614906537</v>
       </c>
       <c r="D91">
-        <v>0.08693259452014993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08616475959085866</v>
+      </c>
+      <c r="E91">
+        <v>-0.1112791802290063</v>
+      </c>
+      <c r="F91">
+        <v>0.0612795076359956</v>
+      </c>
+      <c r="G91">
+        <v>-0.07991351143134535</v>
+      </c>
+      <c r="H91">
+        <v>-0.07174258859697878</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1851428435462347</v>
+        <v>-0.2293721827165171</v>
       </c>
       <c r="C92">
-        <v>-0.2773625734325497</v>
+        <v>-0.2683688804384997</v>
       </c>
       <c r="D92">
-        <v>-0.01556750748832014</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03086333322320345</v>
+      </c>
+      <c r="E92">
+        <v>-0.07976500402546588</v>
+      </c>
+      <c r="F92">
+        <v>-0.005137833128137283</v>
+      </c>
+      <c r="G92">
+        <v>0.03142657191778103</v>
+      </c>
+      <c r="H92">
+        <v>0.007160760292616318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2333926701592566</v>
+        <v>-0.2644665032076211</v>
       </c>
       <c r="C93">
-        <v>-0.2979326243750754</v>
+        <v>-0.2580931967113444</v>
       </c>
       <c r="D93">
-        <v>-0.006148205262964675</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004969661323258426</v>
+      </c>
+      <c r="E93">
+        <v>0.005639157165079261</v>
+      </c>
+      <c r="F93">
+        <v>0.02013107754191017</v>
+      </c>
+      <c r="G93">
+        <v>-0.01085741768808404</v>
+      </c>
+      <c r="H93">
+        <v>0.003169210985559165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3776585681171677</v>
+        <v>-0.3297274616230476</v>
       </c>
       <c r="C94">
-        <v>0.2186984045108249</v>
+        <v>0.2587312500644174</v>
       </c>
       <c r="D94">
-        <v>0.4344951466813584</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4247899547502991</v>
+      </c>
+      <c r="E94">
+        <v>-0.04745530536798619</v>
+      </c>
+      <c r="F94">
+        <v>-0.04833366286098518</v>
+      </c>
+      <c r="G94">
+        <v>0.2187926371394554</v>
+      </c>
+      <c r="H94">
+        <v>0.2126857022285434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06998488870023778</v>
+        <v>-0.06461591030152881</v>
       </c>
       <c r="C95">
-        <v>0.06191688327410659</v>
+        <v>0.06625292608800691</v>
       </c>
       <c r="D95">
-        <v>-0.06534654530569418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0612173104667469</v>
+      </c>
+      <c r="E95">
+        <v>-0.201460543249729</v>
+      </c>
+      <c r="F95">
+        <v>-0.837842673317385</v>
+      </c>
+      <c r="G95">
+        <v>-0.3217697733278048</v>
+      </c>
+      <c r="H95">
+        <v>0.2247746636062655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1678185795979704</v>
+        <v>-0.1622507559989327</v>
       </c>
       <c r="C98">
-        <v>0.04052842763977957</v>
+        <v>0.07381146526076675</v>
       </c>
       <c r="D98">
-        <v>-0.1796616194662705</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1251391796892893</v>
+      </c>
+      <c r="E98">
+        <v>0.3052821709827531</v>
+      </c>
+      <c r="F98">
+        <v>-0.005542428216636544</v>
+      </c>
+      <c r="G98">
+        <v>-0.06648468184150161</v>
+      </c>
+      <c r="H98">
+        <v>-0.0783827828386966</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0004255221706887407</v>
+        <v>-0.003915951644008514</v>
       </c>
       <c r="C101">
-        <v>0.02122288319307713</v>
+        <v>0.02196947034860915</v>
       </c>
       <c r="D101">
-        <v>-0.07189391825027514</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.09111635873103685</v>
+      </c>
+      <c r="E101">
+        <v>-0.02212316895269506</v>
+      </c>
+      <c r="F101">
+        <v>0.02275882456562961</v>
+      </c>
+      <c r="G101">
+        <v>0.02434967070742191</v>
+      </c>
+      <c r="H101">
+        <v>0.1075605783534804</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1250157911787055</v>
+        <v>-0.1047751173509647</v>
       </c>
       <c r="C102">
-        <v>0.1191525900283465</v>
+        <v>0.1211594956712019</v>
       </c>
       <c r="D102">
-        <v>0.04836974366981004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06360113244541085</v>
+      </c>
+      <c r="E102">
+        <v>-0.03410690962977737</v>
+      </c>
+      <c r="F102">
+        <v>-0.008714356101541677</v>
+      </c>
+      <c r="G102">
+        <v>0.01129155217369265</v>
+      </c>
+      <c r="H102">
+        <v>-0.03099810488082817</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
